--- a/input.xlsx
+++ b/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakul\Desktop\Desktop\axsa\portfolio-analytics-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38676D1D-4CC6-4D2E-8E11-BA6A4945FD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B4640B-663D-4BED-A912-006ACFA993A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{769581EE-14DE-4FAC-9F55-F198B651C2A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t>Sub-Asset Class</t>
+  </si>
+  <si>
+    <t>Expected Yield (%)</t>
+  </si>
+  <si>
+    <t>Expected Return (%)</t>
+  </si>
+  <si>
+    <t>Expected Volatility (%)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +538,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -547,6 +556,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -872,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF213B-79F1-4A84-AD27-3161DF06D4D0}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,7 +895,7 @@
     <col min="1" max="6" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,8 +914,17 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -922,8 +943,17 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>6.49</v>
+      </c>
+      <c r="H2">
+        <v>-0.05</v>
+      </c>
+      <c r="I2">
+        <v>10.029999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -942,8 +972,17 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>4.59</v>
+      </c>
+      <c r="H3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I3">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -962,8 +1001,17 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>6.94</v>
+      </c>
+      <c r="H4">
+        <v>5.46</v>
+      </c>
+      <c r="I4">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -982,8 +1030,17 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>9.57</v>
+      </c>
+      <c r="H5">
+        <v>4.29</v>
+      </c>
+      <c r="I5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1002,8 +1059,17 @@
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>4.3</v>
+      </c>
+      <c r="H6">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="I6">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1022,8 +1088,17 @@
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>4.3</v>
+      </c>
+      <c r="H7">
+        <v>11.12</v>
+      </c>
+      <c r="I7">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1042,8 +1117,17 @@
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>9.74</v>
+      </c>
+      <c r="H8">
+        <v>10.73</v>
+      </c>
+      <c r="I8">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1062,8 +1146,17 @@
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>7.3</v>
+      </c>
+      <c r="H9">
+        <v>3.64</v>
+      </c>
+      <c r="I9">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1082,8 +1175,17 @@
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>3.59</v>
+      </c>
+      <c r="H10">
+        <v>5.76</v>
+      </c>
+      <c r="I10">
+        <v>19.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1102,8 +1204,17 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>6.63</v>
+      </c>
+      <c r="H11">
+        <v>8.33</v>
+      </c>
+      <c r="I11">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1122,8 +1233,17 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>3.61</v>
+      </c>
+      <c r="H12">
+        <v>10.9</v>
+      </c>
+      <c r="I12">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1142,8 +1262,17 @@
       <c r="F13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>3.6</v>
+      </c>
+      <c r="H13">
+        <v>5.08</v>
+      </c>
+      <c r="I13">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1162,8 +1291,17 @@
       <c r="F14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>5.73</v>
+      </c>
+      <c r="H14">
+        <v>6.26</v>
+      </c>
+      <c r="I14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1182,8 +1320,17 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2.57</v>
+      </c>
+      <c r="I15">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1202,8 +1349,17 @@
       <c r="F16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I16">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1222,8 +1378,17 @@
       <c r="F17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>3.31</v>
+      </c>
+      <c r="H17">
+        <v>10.25</v>
+      </c>
+      <c r="I17">
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1242,8 +1407,17 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>1.96</v>
+      </c>
+      <c r="H18">
+        <v>12.42</v>
+      </c>
+      <c r="I18">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1262,8 +1436,17 @@
       <c r="F19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>5.94</v>
+      </c>
+      <c r="H19">
+        <v>6.71</v>
+      </c>
+      <c r="I19">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1282,8 +1465,17 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H20">
+        <v>11.01</v>
+      </c>
+      <c r="I20">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1302,8 +1494,17 @@
       <c r="F21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>0.76</v>
+      </c>
+      <c r="H21">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="I21">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1322,8 +1523,17 @@
       <c r="F22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>9.4</v>
+      </c>
+      <c r="H22">
+        <v>4.42</v>
+      </c>
+      <c r="I22">
+        <v>15.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1342,8 +1552,17 @@
       <c r="F23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>4.32</v>
+      </c>
+      <c r="H23">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="I23">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
@@ -1362,8 +1581,17 @@
       <c r="F24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>5.2</v>
+      </c>
+      <c r="H24">
+        <v>13.15</v>
+      </c>
+      <c r="I24">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1382,8 +1610,17 @@
       <c r="F25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>0.73</v>
+      </c>
+      <c r="H25">
+        <v>6.86</v>
+      </c>
+      <c r="I25">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
@@ -1402,8 +1639,17 @@
       <c r="F26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>3.37</v>
+      </c>
+      <c r="H26">
+        <v>13.26</v>
+      </c>
+      <c r="I26">
+        <v>17.010000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>62</v>
       </c>
@@ -1422,8 +1668,17 @@
       <c r="F27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>5.33</v>
+      </c>
+      <c r="H27">
+        <v>-3.48</v>
+      </c>
+      <c r="I27">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1442,8 +1697,17 @@
       <c r="F28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>1.55</v>
+      </c>
+      <c r="H28">
+        <v>10.29</v>
+      </c>
+      <c r="I28">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1462,8 +1726,17 @@
       <c r="F29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>6.13</v>
+      </c>
+      <c r="H29">
+        <v>7.35</v>
+      </c>
+      <c r="I29">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>69</v>
       </c>
@@ -1482,8 +1755,17 @@
       <c r="F30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>3.2</v>
+      </c>
+      <c r="H30">
+        <v>5.8</v>
+      </c>
+      <c r="I30">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1502,8 +1784,17 @@
       <c r="F31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>4.12</v>
+      </c>
+      <c r="H31">
+        <v>7.37</v>
+      </c>
+      <c r="I31">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -1522,8 +1813,17 @@
       <c r="F32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>3.19</v>
+      </c>
+      <c r="H32">
+        <v>-0.95</v>
+      </c>
+      <c r="I32">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>76</v>
       </c>
@@ -1542,8 +1842,17 @@
       <c r="F33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>10.56</v>
+      </c>
+      <c r="H33">
+        <v>6.12</v>
+      </c>
+      <c r="I33">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1562,8 +1871,17 @@
       <c r="F34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>4.96</v>
+      </c>
+      <c r="H34">
+        <v>8.43</v>
+      </c>
+      <c r="I34">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1582,8 +1900,17 @@
       <c r="F35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>1.83</v>
+      </c>
+      <c r="H35">
+        <v>12.91</v>
+      </c>
+      <c r="I35">
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>81</v>
       </c>
@@ -1602,8 +1929,17 @@
       <c r="F36" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>7.47</v>
+      </c>
+      <c r="H36">
+        <v>4.93</v>
+      </c>
+      <c r="I36">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>83</v>
       </c>
@@ -1622,8 +1958,17 @@
       <c r="F37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>1.34</v>
+      </c>
+      <c r="H37">
+        <v>3.77</v>
+      </c>
+      <c r="I37">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -1642,8 +1987,17 @@
       <c r="F38" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>5.63</v>
+      </c>
+      <c r="H38">
+        <v>4.99</v>
+      </c>
+      <c r="I38">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -1662,8 +2016,17 @@
       <c r="F39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>10.66</v>
+      </c>
+      <c r="I39">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>90</v>
       </c>
@@ -1682,8 +2045,17 @@
       <c r="F40" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>1.02</v>
+      </c>
+      <c r="H40">
+        <v>8.32</v>
+      </c>
+      <c r="I40">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>92</v>
       </c>
@@ -1702,8 +2074,17 @@
       <c r="F41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>5.59</v>
+      </c>
+      <c r="H41">
+        <v>4.88</v>
+      </c>
+      <c r="I41">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>94</v>
       </c>
@@ -1722,8 +2103,17 @@
       <c r="F42" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>7.22</v>
+      </c>
+      <c r="H42">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="I42">
+        <v>14.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>97</v>
       </c>
@@ -1742,8 +2132,17 @@
       <c r="F43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>5.51</v>
+      </c>
+      <c r="H43">
+        <v>7.39</v>
+      </c>
+      <c r="I43">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>99</v>
       </c>
@@ -1762,8 +2161,17 @@
       <c r="F44" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H44">
+        <v>10.87</v>
+      </c>
+      <c r="I44">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -1782,8 +2190,17 @@
       <c r="F45" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H45">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I45">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -1802,8 +2219,17 @@
       <c r="F46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H46">
+        <v>5.69</v>
+      </c>
+      <c r="I46">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -1822,8 +2248,17 @@
       <c r="F47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>2.84</v>
+      </c>
+      <c r="H47">
+        <v>5.43</v>
+      </c>
+      <c r="I47">
+        <v>10.92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
@@ -1842,8 +2277,17 @@
       <c r="F48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>3.62</v>
+      </c>
+      <c r="H48">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I48">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>111</v>
       </c>
@@ -1862,8 +2306,17 @@
       <c r="F49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>8.17</v>
+      </c>
+      <c r="H49">
+        <v>8.18</v>
+      </c>
+      <c r="I49">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -1881,6 +2334,15 @@
       </c>
       <c r="F50" t="s">
         <v>52</v>
+      </c>
+      <c r="G50">
+        <v>6.03</v>
+      </c>
+      <c r="H50">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I50">
+        <v>3.82</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakul\Desktop\Desktop\axsa\portfolio-analytics-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B4640B-663D-4BED-A912-006ACFA993A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE07F0CE-3D7A-4DCD-966D-010ADE07C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{769581EE-14DE-4FAC-9F55-F198B651C2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -394,13 +395,25 @@
   </si>
   <si>
     <t>Expected Volatility (%)</t>
+  </si>
+  <si>
+    <t>Income/Growth</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Low Vol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +442,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -524,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -537,6 +556,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -556,11 +580,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="11" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="17">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
     <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
@@ -571,11 +595,47 @@
     <cellStyle name="60% - Accent3" xfId="4" builtinId="40"/>
     <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
     <cellStyle name="60% - Accent6" xfId="10" builtinId="52"/>
+    <cellStyle name="Comma 2" xfId="14" xr:uid="{6E61CDDB-491B-4F61-B7C1-35E98230E7B4}"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{DB380BFF-C88E-42B9-8471-40A05C5D1101}"/>
+    <cellStyle name="Normal 2 2" xfId="16" xr:uid="{20887BBA-9FC8-4D8D-8B0A-19707224C1D0}"/>
+    <cellStyle name="Normal 3" xfId="15" xr:uid="{E5F44F33-F273-49F2-B17F-2798ECFC6B91}"/>
+    <cellStyle name="Normal 4" xfId="12" xr:uid="{4B5AFB91-4DA7-4454-B845-D8EA78E64686}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Asset_Data-style" pivot="0" count="3" xr9:uid="{AA58D399-CA59-492E-A5D2-F6FCAC5F2032}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -884,18 +944,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF213B-79F1-4A84-AD27-3161DF06D4D0}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="15.36328125" customWidth="1"/>
+    <col min="1" max="7" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,25 +966,28 @@
         <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -935,25 +998,28 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>6.49</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.05</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -964,25 +1030,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4.59</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8.83</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -993,25 +1062,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6.94</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5.46</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1021,26 +1093,29 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9.57</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.29</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>7.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1050,26 +1125,29 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9.4499999999999993</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1079,26 +1157,29 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4.3</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11.12</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5.99</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1108,26 +1189,29 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9.74</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10.73</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9.19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1137,26 +1221,29 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7.3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.64</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12.02</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1166,26 +1253,29 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3.59</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.76</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>19.43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1196,25 +1286,28 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6.63</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>8.33</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>10.87</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1225,25 +1318,28 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3.61</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10.9</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>11.29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1254,25 +1350,28 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.6</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5.08</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1283,25 +1382,28 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5.73</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6.26</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1312,25 +1414,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.57</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1341,25 +1446,28 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>10.3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1370,25 +1478,28 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.31</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>10.25</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>22.32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1399,25 +1510,28 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.96</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>12.42</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1428,25 +1542,28 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5.94</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6.71</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>11.51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1457,25 +1574,28 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>11.01</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>9.83</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1486,25 +1606,28 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21">
         <v>0.76</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4.16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1515,25 +1638,28 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22">
         <v>9.4</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4.42</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>15.71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1544,25 +1670,28 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23">
         <v>4.32</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>8.4499999999999993</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>13.76</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
@@ -1573,25 +1702,28 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24">
         <v>5.2</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>13.15</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>13.96</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -1602,25 +1734,28 @@
         <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25">
         <v>0.73</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6.86</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5.45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
@@ -1631,25 +1766,28 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26">
         <v>3.37</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>13.26</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>62</v>
       </c>
@@ -1660,25 +1798,28 @@
         <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27">
         <v>5.33</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-3.48</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.99</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1688,26 +1829,29 @@
       <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="D28" t="s">
-        <v>50</v>
+      <c r="D28" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28">
         <v>1.55</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>10.29</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>12.93</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1717,26 +1861,29 @@
       <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" t="s">
-        <v>50</v>
+      <c r="D29" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29">
         <v>6.13</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7.35</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>20.95</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>69</v>
       </c>
@@ -1746,26 +1893,29 @@
       <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="D30" t="s">
-        <v>50</v>
+      <c r="D30" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30">
         <v>3.2</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5.8</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5.05</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1775,26 +1925,29 @@
       <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="D31" t="s">
-        <v>50</v>
+      <c r="D31" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31">
         <v>4.12</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>7.37</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>7.17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -1804,26 +1957,29 @@
       <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
-        <v>50</v>
+      <c r="D32" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32">
         <v>3.19</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.95</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>10.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>76</v>
       </c>
@@ -1833,26 +1989,29 @@
       <c r="C33" t="s">
         <v>57</v>
       </c>
-      <c r="D33" t="s">
-        <v>50</v>
+      <c r="D33" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33">
         <v>10.56</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>6.12</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>7.48</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1863,25 +2022,28 @@
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34">
         <v>4.96</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>8.43</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2.25</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1892,25 +2054,28 @@
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35">
         <v>1.83</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>12.91</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>10.34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>81</v>
       </c>
@@ -1921,25 +2086,28 @@
         <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36">
         <v>7.47</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4.93</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>83</v>
       </c>
@@ -1950,25 +2118,28 @@
         <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37">
         <v>1.34</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>3.77</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>12.37</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -1979,25 +2150,28 @@
         <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38">
+        <v>51</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38">
         <v>5.63</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>4.99</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>5.4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -2008,25 +2182,28 @@
         <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>10.66</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>17.75</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>90</v>
       </c>
@@ -2037,25 +2214,28 @@
         <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40">
         <v>1.02</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>8.32</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>6.08</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>92</v>
       </c>
@@ -2066,25 +2246,28 @@
         <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41">
         <v>5.59</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4.88</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>8.39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>94</v>
       </c>
@@ -2095,25 +2278,28 @@
         <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42">
         <v>7.22</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>9.0500000000000007</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>14.07</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>97</v>
       </c>
@@ -2124,25 +2310,28 @@
         <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43">
         <v>5.51</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>7.39</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>3.85</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>99</v>
       </c>
@@ -2153,25 +2342,28 @@
         <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>10.87</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>11.14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>102</v>
       </c>
@@ -2182,25 +2374,28 @@
         <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4.1900000000000004</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>16.54</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>104</v>
       </c>
@@ -2211,25 +2406,28 @@
         <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>5.69</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1.96</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2240,25 +2438,28 @@
         <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
         <v>2.84</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>5.43</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>10.92</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
@@ -2269,25 +2470,28 @@
         <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48">
         <v>3.62</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>11.3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>111</v>
       </c>
@@ -2298,25 +2502,28 @@
         <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49">
         <v>8.17</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>8.18</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>13.91</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -2327,23 +2534,29 @@
         <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50">
         <v>6.03</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>8.0399999999999991</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>3.82</v>
       </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D51" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2364,4 +2577,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF5FF50-24E3-4AB3-A158-9C6EEBE09EAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>